--- a/자료/DATABASE/베이스자료/신학,사회,IT,미래융합전필.xlsx
+++ b/자료/DATABASE/베이스자료/신학,사회,IT,미래융합전필.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minseok\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{731F4365-34FD-4A35-883B-6368F7B4FDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE52786-2B82-4AC7-BE42-82836B9587FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{2A16F5AC-961E-45E7-B7E4-8246EFEC2891}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="85">
   <si>
     <t>전공</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회귀분석및실습 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통계조사실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,30 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신양수련회 I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교회봉사 I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교회봉사 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교회봉사III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신앙수련회 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신학강독 I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인간이해와교육</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,34 +159,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신학강독 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신앙수련회III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목회실습 I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목회실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목회실습 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신앙수련회IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목회실습III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기독교교육종합연구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사회조사방법 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한국사회연구실습3-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,6 +300,78 @@
   </si>
   <si>
     <t>정치지도자와대중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성서입문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신학입문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신학강독Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회봉사Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목회실습Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신앙수련회Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회봉사Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신앙수련회Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신학강독Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목회실습Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회봉사Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신앙수련회Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목회실습Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회봉사Ⅳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신앙수련회Ⅳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목회실습Ⅳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회조사방법Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀분석및실습Ⅱ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5A1604-7072-4972-846B-34E81B9598AE}">
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -934,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1022,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1126,7 +1142,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1165,7 +1181,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -1181,7 +1197,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1197,7 +1213,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -1216,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1253,7 +1269,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1269,7 +1285,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -1285,7 +1301,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -1304,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1317,7 +1333,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -1341,7 +1357,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -1357,7 +1373,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -1373,7 +1389,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -1392,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1405,7 +1421,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
@@ -1429,7 +1445,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
@@ -1445,7 +1461,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -1461,7 +1477,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -1480,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1490,7 +1506,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1498,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1526,7 +1542,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1534,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1562,15 +1578,15 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
@@ -1591,10 +1607,10 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1607,10 +1623,10 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1623,10 +1639,10 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1639,10 +1655,10 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1655,10 +1671,10 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1671,10 +1687,10 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1687,7 +1703,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -1703,7 +1719,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -1719,10 +1735,10 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1735,7 +1751,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -1751,10 +1767,10 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1767,10 +1783,10 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1783,10 +1799,10 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1799,10 +1815,10 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1815,10 +1831,10 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1831,10 +1847,10 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1847,7 +1863,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -1863,10 +1879,10 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1879,10 +1895,10 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1895,34 +1911,26 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="1"/>
-      <c r="G66" s="1">
-        <v>17</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="1">
-        <v>65</v>
-      </c>
-      <c r="J66" s="1">
-        <v>130</v>
-      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1935,26 +1943,34 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="G68" s="1">
+        <v>17</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="1">
+        <v>65</v>
+      </c>
+      <c r="J68" s="1">
+        <v>130</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -1967,10 +1983,10 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -1983,10 +1999,10 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -1999,10 +2015,10 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2015,10 +2031,10 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E73" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2031,10 +2047,10 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E74" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -2047,10 +2063,10 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2063,7 +2079,7 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -2079,10 +2095,10 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2095,10 +2111,10 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2111,10 +2127,10 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2127,10 +2143,10 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2143,10 +2159,10 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -2159,10 +2175,10 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -2175,10 +2191,10 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E83" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -2191,10 +2207,10 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -2207,7 +2223,7 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -2223,34 +2239,26 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="1">
-        <v>19</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="1">
-        <v>72</v>
-      </c>
-      <c r="J86" s="1">
-        <v>130</v>
-      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -2263,10 +2271,10 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2279,10 +2287,10 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2295,26 +2303,34 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="G90" s="1">
+        <v>19</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="1">
+        <v>72</v>
+      </c>
+      <c r="J90" s="1">
+        <v>130</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2327,10 +2343,10 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -2343,10 +2359,10 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E93" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2359,10 +2375,10 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E94" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -2375,10 +2391,10 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E95" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -2391,10 +2407,10 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -2407,10 +2423,10 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E97" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -2419,187 +2435,207 @@
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E98" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D102" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D103" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D104" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E104" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G105">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D106" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D107" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D108" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>54</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E110">
-        <v>3</v>
-      </c>
-      <c r="G110">
-        <v>15</v>
-      </c>
-      <c r="H110" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110">
-        <v>60</v>
-      </c>
-      <c r="J110">
-        <v>130</v>
+        <v>14</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D111" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E111">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E111" s="1">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="4:10" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="E112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="4:10" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D114" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114">
-        <v>3</v>
-      </c>
-      <c r="G114">
-        <v>17</v>
-      </c>
-      <c r="H114" t="s">
-        <v>17</v>
-      </c>
-      <c r="I114">
-        <v>60</v>
-      </c>
-      <c r="J114">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="4:10" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="E114" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D115" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="4:10" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D116" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D117" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="4:10" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>41</v>
+      </c>
       <c r="D118" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E118">
         <v>3</v>
       </c>
       <c r="G118">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I118">
         <v>60</v>
@@ -2608,140 +2644,157 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D119" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D120" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E120">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D121" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="4:10" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>17</v>
+      </c>
+      <c r="H122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122">
+        <v>60</v>
+      </c>
+      <c r="J122">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D123" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E123">
-        <v>3</v>
-      </c>
-      <c r="G123">
-        <v>21</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>19</v>
+      </c>
+      <c r="H126" t="s">
         <v>17</v>
       </c>
-      <c r="I123">
+      <c r="I126">
         <v>60</v>
       </c>
-      <c r="J123">
+      <c r="J126">
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D124" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D126" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D127" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E127">
         <v>3</v>
       </c>
     </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D128" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>59</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E129">
         <v>3</v>
-      </c>
-      <c r="G129">
-        <v>15</v>
-      </c>
-      <c r="H129" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129">
-        <v>60</v>
-      </c>
-      <c r="J129">
-        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D130" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D131" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>21</v>
+      </c>
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131">
+        <v>60</v>
+      </c>
+      <c r="J131">
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D132" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D133" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -2749,40 +2802,35 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D134" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D135" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>46</v>
+      </c>
       <c r="D137" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E137">
         <v>3</v>
       </c>
       <c r="G137">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H137" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I137">
         <v>60</v>
@@ -2793,7 +2841,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D138" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -2801,7 +2849,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D139" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -2809,7 +2857,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D140" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -2817,7 +2865,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D141" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E141">
         <v>3</v>
@@ -2825,7 +2873,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D142" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -2833,7 +2881,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D143" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -2844,18 +2892,18 @@
         <v>14</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D145" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E145">
         <v>3</v>
       </c>
       <c r="G145">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H145" t="s">
         <v>17</v>
@@ -2869,7 +2917,7 @@
     </row>
     <row r="146" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D146" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -2877,15 +2925,15 @@
     </row>
     <row r="147" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D147" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D148" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -2893,83 +2941,83 @@
     </row>
     <row r="149" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D149" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D150" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D151" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D152" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D153" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E153">
         <v>3</v>
+      </c>
+      <c r="G153">
+        <v>19</v>
+      </c>
+      <c r="H153" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153">
+        <v>60</v>
+      </c>
+      <c r="J153">
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D154" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E154">
-        <v>3</v>
-      </c>
-      <c r="G154">
-        <v>21</v>
-      </c>
-      <c r="H154" t="s">
-        <v>17</v>
-      </c>
-      <c r="I154">
-        <v>60</v>
-      </c>
-      <c r="J154">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D155" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D156" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D157" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -2977,168 +3025,244 @@
     </row>
     <row r="158" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D158" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D159" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D160" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D161" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D162" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E162">
         <v>3</v>
       </c>
+      <c r="G162">
+        <v>21</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162">
+        <v>60</v>
+      </c>
+      <c r="J162">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
-        <v>69</v>
-      </c>
       <c r="D164" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E164">
         <v>3</v>
-      </c>
-      <c r="I164">
-        <v>60</v>
-      </c>
-      <c r="J164">
-        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D165" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D166" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>71</v>
-      </c>
       <c r="D167" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E167">
         <v>3</v>
-      </c>
-      <c r="G167">
-        <v>21</v>
-      </c>
-      <c r="H167" t="s">
-        <v>17</v>
-      </c>
-      <c r="I167">
-        <v>72</v>
-      </c>
-      <c r="J167">
-        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D168" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D169" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E169">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D170" s="1" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D171" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>55</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <v>60</v>
+      </c>
+      <c r="J172">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D173" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E171">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
-        <v>76</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E173">
-        <v>3</v>
-      </c>
-      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>57</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="G175">
         <v>21</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D174" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D175" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E175">
-        <v>3</v>
+      <c r="H175" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175">
+        <v>72</v>
+      </c>
+      <c r="J175">
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D176" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E176">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D177" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D178" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D179" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E177">
-        <v>3</v>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>62</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="G181">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D182" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D183" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D184" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
